--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -63,7 +63,7 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>folder</t>
+    <t>Folder</t>
   </si>
   <si>
     <t>钟晨瑶oi发布了一篇得物动态，https://dw4.co/t/A/1syyfa3c8点开链接，快来看吧！</t>
@@ -1348,8 +1348,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>

--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>URL</t>
   </si>
@@ -45,61 +45,64 @@
     <t>ProductNameEn</t>
   </si>
   <si>
+    <t>GenderEn</t>
+  </si>
+  <si>
+    <t>HKPrice</t>
+  </si>
+  <si>
+    <t>SGPrice</t>
+  </si>
+  <si>
+    <t>MYPrice</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>钟晨瑶oi发布了一篇得物动态，https://dw4.co/t/A/1syyfa3c8点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>ML2002RC</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R 男女同款元祖灰</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R Unisex Original Grey</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Balance </t>
+  </si>
+  <si>
+    <t>/Users/liuxiang/Desktop/262/modified</t>
+  </si>
+  <si>
     <t>GenderCn</t>
   </si>
   <si>
-    <t>GenderEn</t>
-  </si>
-  <si>
-    <t>HKPrice</t>
-  </si>
-  <si>
-    <t>SGPrice</t>
-  </si>
-  <si>
-    <t>MYPrice</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>钟晨瑶oi发布了一篇得物动态，https://dw4.co/t/A/1syyfa3c8点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>ML2002RC</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R 男女同款元祖灰</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R Unisex Original Grey</t>
+    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>M2002RG1</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R 男女同款 綠色</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R Unisex Green</t>
   </si>
   <si>
     <t>男裝</t>
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Balance </t>
-  </si>
-  <si>
-    <t>/Users/liuxiang/Desktop/262/modified</t>
-  </si>
-  <si>
-    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>M2002RG1</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R 男女同款 綠色</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R Unisex Green</t>
   </si>
   <si>
     <t>酸橘子糖发布了一篇得物动态，https://dw4.co/t/A/1sxMYiqdm点开链接，快来看吧！</t>
@@ -1346,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1359,13 +1362,13 @@
     <col min="3" max="3" width="32.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="81.5576923076923" style="2" customWidth="1"/>
     <col min="5" max="5" width="121.144230769231" style="2" customWidth="1"/>
-    <col min="6" max="10" width="9.23076923076923" style="2"/>
-    <col min="11" max="11" width="13.4519230769231" style="2" customWidth="1"/>
-    <col min="12" max="12" width="51.1153846153846" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.23076923076923" style="2"/>
+    <col min="6" max="9" width="9.23076923076923" style="2"/>
+    <col min="10" max="10" width="13.4519230769231" style="2" customWidth="1"/>
+    <col min="11" max="11" width="51.1153846153846" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1396,63 +1399,54 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="4">
         <v>882</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4">
+        <v>580</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2*0.2</f>
+        <v>116</v>
+      </c>
+      <c r="I2" s="4">
+        <f>G2*0.5</f>
+        <v>290</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="4">
-        <v>580</v>
-      </c>
-      <c r="I2" s="4">
-        <f>H2*0.2</f>
-        <v>116</v>
-      </c>
-      <c r="J2" s="4">
-        <f>H2*0.5</f>
-        <v>290</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="5:5">
       <c r="E5" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
       <formula1>$M:$M</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
-      <formula1>$N:$N</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1498,45 +1492,45 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="4">
         <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4">
         <v>680</v>
@@ -1550,30 +1544,30 @@
         <v>340</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <v>550</v>
@@ -1587,7 +1581,7 @@
         <v>275</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:11">
@@ -1599,10 +1593,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4">
         <v>660</v>
@@ -1616,7 +1610,7 @@
         <v>330</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
@@ -1628,10 +1622,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <v>450</v>
@@ -1645,7 +1639,7 @@
         <v>225</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
@@ -1657,10 +1651,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4">
         <v>660</v>
@@ -1674,7 +1668,7 @@
         <v>330</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
@@ -1686,10 +1680,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4">
         <v>860</v>
@@ -1703,7 +1697,7 @@
         <v>430</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
@@ -1715,10 +1709,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4">
         <v>620</v>
@@ -1732,7 +1726,7 @@
         <v>310</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:11">
@@ -1744,10 +1738,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2">
         <v>800</v>
@@ -1761,7 +1755,7 @@
         <v>400</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="3:11">
@@ -1771,10 +1765,10 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H10" s="4">
         <v>599</v>
@@ -1788,7 +1782,7 @@
         <v>299.5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
@@ -1800,10 +1794,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H11" s="4">
         <v>689</v>
@@ -1817,7 +1811,7 @@
         <v>344.5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:11">
@@ -1829,10 +1823,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
@@ -1846,7 +1840,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -1858,10 +1852,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
         <v>699</v>
@@ -1875,7 +1869,7 @@
         <v>349.5</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
@@ -1886,10 +1880,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2">
         <v>599</v>
@@ -1903,7 +1897,7 @@
         <v>299.5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="3:11">
@@ -1911,10 +1905,10 @@
         <v>532</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2">
         <v>780</v>
@@ -1928,7 +1922,7 @@
         <v>390</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="3:11">
@@ -1936,10 +1930,10 @@
         <v>541</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2">
         <v>800</v>
@@ -1953,7 +1947,7 @@
         <v>400</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="5:5">

--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>URL</t>
   </si>
@@ -63,48 +63,108 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>钟晨瑶oi发布了一篇得物动态，https://dw4.co/t/A/1syyfa3c8点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>ML2002RC</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R 男女同款元祖灰</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R Unisex Original Grey</t>
+    <t>昭壅发布了一篇得物动态，https://dw4.co/t/A/1sXngrcTI点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>U990GR6</t>
+  </si>
+  <si>
+    <t>New Balance NB 990 V6 男女同款 灰色</t>
+  </si>
+  <si>
+    <t>New Balance NB 990 V6 Unisex Grey</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>New Balance</t>
+  </si>
+  <si>
+    <t>C:\Users\pjnxr\Desktop\U990GR6</t>
+  </si>
+  <si>
+    <t>你的小汐汐发布了一篇得物动态，https://dw4.co/t/A/1sXoWPqAD点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>FN3727-100</t>
+  </si>
+  <si>
+    <t>Jordan Air Jordan 1 Low OG "Year of the Dragon」 男女同款 白綠</t>
+  </si>
+  <si>
+    <t>Jordan Air Jordan 1 Low OG "Year of the Dragon" Unisex White Green</t>
   </si>
   <si>
     <t>men</t>
   </si>
   <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>C:\Users\pjnxr\Desktop\FN3727-100</t>
+  </si>
+  <si>
+    <t>巴斯Buzzzz发布了一篇得物动态，https://dw4.co/t/A/1sXnIeuF0点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>IF4491</t>
+  </si>
+  <si>
+    <t>adidas originals GAZELLE "Floral/Beige/Light Blue” 女款灰色</t>
+  </si>
+  <si>
+    <t>adidas originals GAZELLE "Floral/Beige/Light Blue" Women's Grey</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>C:\Users\pjnxr\Desktop\IF4491</t>
+  </si>
+  <si>
+    <t>Borbor_发布了一篇得物动态，https://dw4.co/t/A/1sXpJ1fqj点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>THL7C2-9399</t>
+  </si>
+  <si>
+    <t>Onitsuka Tiger MEXICO 66 男女同款 銀色</t>
+  </si>
+  <si>
+    <t>Onitsuka Tiger MEXICO 66 Unisex Silver</t>
+  </si>
+  <si>
+    <t>Onitsuka Tiger</t>
+  </si>
+  <si>
+    <t>C:\Users\pjnxr\Desktop\THL7C2-9399</t>
+  </si>
+  <si>
+    <t>GenderCn</t>
+  </si>
+  <si>
+    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>M2002RG1</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R 男女同款 綠色</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R Unisex Green</t>
+  </si>
+  <si>
+    <t>男裝</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Balance </t>
   </si>
   <si>
-    <t>/Users/liuxiang/Desktop/262/modified</t>
-  </si>
-  <si>
-    <t>GenderCn</t>
-  </si>
-  <si>
-    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>M2002RG1</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R 男女同款 綠色</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R Unisex Green</t>
-  </si>
-  <si>
-    <t>男裝</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>酸橘子糖发布了一篇得物动态，https://dw4.co/t/A/1sxMYiqdm点开链接，快来看吧！</t>
   </si>
   <si>
@@ -138,16 +198,7 @@
     <t>SALOMON</t>
   </si>
   <si>
-    <t>Nike</t>
-  </si>
-  <si>
     <t>Balenciaga</t>
-  </si>
-  <si>
-    <t>New Balance</t>
-  </si>
-  <si>
-    <t>Adidas</t>
   </si>
   <si>
     <t>m</t>
@@ -1351,8 +1402,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1411,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>882</v>
+        <v>478</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -1423,15 +1474,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="H2" s="4">
-        <f>G2*0.2</f>
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="I2" s="4">
-        <f>G2*0.5</f>
-        <v>290</v>
+        <v>299.5</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>16</v>
@@ -1440,8 +1489,110 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="5:5">
-      <c r="E5" s="9"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>369</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>550</v>
+      </c>
+      <c r="H3" s="2">
+        <v>110</v>
+      </c>
+      <c r="I3" s="2">
+        <v>275</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>359</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>450</v>
+      </c>
+      <c r="H4" s="2">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2">
+        <v>225</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>262</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2">
+        <v>530</v>
+      </c>
+      <c r="H5" s="2">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2">
+        <v>265</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1492,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -1512,25 +1663,25 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4">
         <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H2" s="4">
         <v>680</v>
@@ -1544,30 +1695,30 @@
         <v>340</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4">
         <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4">
         <v>550</v>
@@ -1581,7 +1732,7 @@
         <v>275</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:11">
@@ -1593,10 +1744,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4">
         <v>660</v>
@@ -1610,7 +1761,7 @@
         <v>330</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
@@ -1622,10 +1773,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4">
         <v>450</v>
@@ -1639,7 +1790,7 @@
         <v>225</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
@@ -1651,10 +1802,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4">
         <v>660</v>
@@ -1668,7 +1819,7 @@
         <v>330</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
@@ -1680,10 +1831,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4">
         <v>860</v>
@@ -1697,7 +1848,7 @@
         <v>430</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
@@ -1709,10 +1860,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4">
         <v>620</v>
@@ -1726,7 +1877,7 @@
         <v>310</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:11">
@@ -1738,10 +1889,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2">
         <v>800</v>
@@ -1755,7 +1906,7 @@
         <v>400</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="3:11">
@@ -1765,10 +1916,10 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4">
         <v>599</v>
@@ -1782,7 +1933,7 @@
         <v>299.5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
@@ -1794,10 +1945,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4">
         <v>689</v>
@@ -1811,7 +1962,7 @@
         <v>344.5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:11">
@@ -1823,10 +1974,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
@@ -1840,7 +1991,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -1852,10 +2003,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2">
         <v>699</v>
@@ -1869,7 +2020,7 @@
         <v>349.5</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
@@ -1880,10 +2031,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2">
         <v>599</v>
@@ -1897,7 +2048,7 @@
         <v>299.5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="3:11">
@@ -1905,10 +2056,10 @@
         <v>532</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2">
         <v>780</v>
@@ -1922,7 +2073,7 @@
         <v>390</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="3:11">
@@ -1930,10 +2081,10 @@
         <v>541</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2">
         <v>800</v>
@@ -1947,7 +2098,7 @@
         <v>400</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="5:5">

--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="13980"/>
+    <workbookView windowWidth="24460" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
   <si>
     <t>URL</t>
   </si>
@@ -63,16 +63,16 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>昭壅发布了一篇得物动态，https://dw4.co/t/A/1sXngrcTI点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>U990GR6</t>
-  </si>
-  <si>
-    <t>New Balance NB 990 V6 男女同款 灰色</t>
-  </si>
-  <si>
-    <t>New Balance NB 990 V6 Unisex Grey</t>
+    <t>香菜脑袋iiic发布了一篇得物动态，https://dw4.co/t/A/1tAyKdM3e点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>M1906REH</t>
+  </si>
+  <si>
+    <t>New Balance NB 1906R Y2K 男女同款銀灰</t>
+  </si>
+  <si>
+    <t>New Balance NB 1906R Y2K unisex silver-grey</t>
   </si>
   <si>
     <t>women</t>
@@ -84,16 +84,16 @@
     <t>C:\Users\pjnxr\Desktop\U990GR6</t>
   </si>
   <si>
-    <t>你的小汐汐发布了一篇得物动态，https://dw4.co/t/A/1sXoWPqAD点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>FN3727-100</t>
-  </si>
-  <si>
-    <t>Jordan Air Jordan 1 Low OG "Year of the Dragon」 男女同款 白綠</t>
-  </si>
-  <si>
-    <t>Jordan Air Jordan 1 Low OG "Year of the Dragon" Unisex White Green</t>
+    <t>快乐椰椰a发布了一篇得物动态，https://dw4.co/t/A/1tB0KiySW点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>IF4397</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG 黑白藍</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG black white blue</t>
   </si>
   <si>
     <t>men</t>
@@ -105,16 +105,16 @@
     <t>C:\Users\pjnxr\Desktop\FN3727-100</t>
   </si>
   <si>
-    <t>巴斯Buzzzz发布了一篇得物动态，https://dw4.co/t/A/1sXnIeuF0点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>IF4491</t>
-  </si>
-  <si>
-    <t>adidas originals GAZELLE "Floral/Beige/Light Blue” 女款灰色</t>
-  </si>
-  <si>
-    <t>adidas originals GAZELLE "Floral/Beige/Light Blue" Women's Grey</t>
+    <t>小小小小小绵羊发布了一篇得物动态，https://dw4.co/t/A/1tAzy8w1u点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>FD0736-100</t>
+  </si>
+  <si>
+    <t>Nike V2K Run 女裝白銀</t>
+  </si>
+  <si>
+    <t>Nike V2K Run Women's Silver</t>
   </si>
   <si>
     <t>Adidas</t>
@@ -123,22 +123,166 @@
     <t>C:\Users\pjnxr\Desktop\IF4491</t>
   </si>
   <si>
-    <t>Borbor_发布了一篇得物动态，https://dw4.co/t/A/1sXpJ1fqj点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>THL7C2-9399</t>
-  </si>
-  <si>
-    <t>Onitsuka Tiger MEXICO 66 男女同款 銀色</t>
-  </si>
-  <si>
-    <t>Onitsuka Tiger MEXICO 66 Unisex Silver</t>
+    <t>年纪大了7点就困发布了一篇得物动态，https://dw4.co/t/A/1tAzyRVzk点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>734734W3XL49191</t>
+  </si>
+  <si>
+    <t>Balenciaga 3XL 繫帶 做舊 老爸鞋 淺米色</t>
+  </si>
+  <si>
+    <t>Balenciaga 3XL lace-up distressed sneakers in light beige</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
+  </si>
+  <si>
+    <t>C:\Users\pjnxr\Desktop\THL7C2-9399</t>
+  </si>
+  <si>
+    <t>似懂非懂3发布了一篇得物动态，https://dw4.co/t/A/1tB0YbS1A点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1147670-ANW</t>
+  </si>
+  <si>
+    <t>HOKA ONE ONE HOPARA 2 溯溪鞋 女款白色</t>
+  </si>
+  <si>
+    <t>HOKA ONE ONE HOPARA 2 River Shoes Women's White</t>
+  </si>
+  <si>
+    <t>阿嘛特呀斯发布了一篇得物动态，https://dw4.co/t/A/1tB0ZDam4点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1202A056-109</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 女裝白銀</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Women's White, Black, and Silver</t>
+  </si>
+  <si>
+    <t>Asics</t>
+  </si>
+  <si>
+    <t>你的小汐汐发布了一篇得物动态，https://dw4.co/t/A/1tAynUYHw点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>FU9007</t>
+  </si>
+  <si>
+    <t>adidas originals Yeezy Boost 350 V2 黑滿天星"Black"  男女同款</t>
+  </si>
+  <si>
+    <t>adidas originals Yeezy Boost 350 V2 "Black" unisex</t>
+  </si>
+  <si>
+    <t>大运天地SLOMON_JOjo发布了一篇得物动态，https://dw4.co/t/A/1tB0znS3w点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>SALOMON XT-6 GTX 黑色 白色</t>
+  </si>
+  <si>
+    <t>SALOMON XT-6 GTX Black White</t>
+  </si>
+  <si>
+    <t>Salomon</t>
+  </si>
+  <si>
+    <t>要努力学习呀呀发布了一篇得物动态，https://dw4.co/t/A/1tAzboe1H点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1201A019-108</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 戶外機能 Y2K 男女同款 黑白銀</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Outdoor Functional Y2K Unisex Black, White, and Silver</t>
+  </si>
+  <si>
+    <t>球鞋开箱日记发布了一篇得物动态，https://dw4.co/t/A/1tB0PvtdX点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>FZ1267</t>
+  </si>
+  <si>
+    <t>adidas originals Yeezy Boost 350 V2 芝麻灰" zyon 男女同款 灰色</t>
+  </si>
+  <si>
+    <t>adidas originals Yeezy Boost 350 V2 Sesame Grey" zyon unisex grey</t>
+  </si>
+  <si>
+    <t>温州彭于晏___发布了一篇得物动态，https://dw4.co/t/A/1tB1MmgUS点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>RU01D3897LCOLVS-911</t>
+  </si>
+  <si>
+    <t>RICK OWENS/RO 黑色</t>
+  </si>
+  <si>
+    <t>RICK OWENS/RO black</t>
+  </si>
+  <si>
+    <t>RICK OWENS</t>
+  </si>
+  <si>
+    <t>蒋潇潇发布了一篇得物动态，https://dw4.co/t/A/1tB12oZY4点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>FJ1674-100</t>
+  </si>
+  <si>
+    <t>Nike Dunk SB Low Pro "Triple White" 男女同款白</t>
+  </si>
+  <si>
+    <t>Nike Dunk SB Low Pro "Triple White" unisex white</t>
+  </si>
+  <si>
+    <t>泡泡只想玩球鞋发布了一篇得物动态，https://dw4.co/t/A/1tB1NcQQN点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>D507L-0152</t>
+  </si>
+  <si>
+    <t>Onitsuka Tiger MEXICO 66 白藍色</t>
   </si>
   <si>
     <t>Onitsuka Tiger</t>
   </si>
   <si>
-    <t>C:\Users\pjnxr\Desktop\THL7C2-9399</t>
+    <t>BillLin发布了一篇得物动态，https://dw4.co/t/A/1tB04BhQq点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>DR5415-100</t>
+  </si>
+  <si>
+    <t>Nike SB x Jordan Air Jordan 4 "Navy" 男女同款 白藍</t>
+  </si>
+  <si>
+    <t>Nike SB x Jordan Air Jordan 4 "Navy" unisex white and blue</t>
+  </si>
+  <si>
+    <t>Jordan Air</t>
+  </si>
+  <si>
+    <t>得物小静静124发布了一篇得物动态，https://dw4.co/t/A/1tB04SgHo点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>IE3437</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG 男女同款 白綠灰</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG unisex white, green and grey</t>
+  </si>
+  <si>
+    <t>adidas</t>
   </si>
   <si>
     <t>GenderCn</t>
@@ -183,22 +327,13 @@
     <t>w</t>
   </si>
   <si>
-    <t>adidas</t>
-  </si>
-  <si>
     <t>Hoka</t>
   </si>
   <si>
     <t xml:space="preserve">adidas YEEZY </t>
   </si>
   <si>
-    <t>Asics</t>
-  </si>
-  <si>
     <t>SALOMON</t>
-  </si>
-  <si>
-    <t>Balenciaga</t>
   </si>
   <si>
     <t>m</t>
@@ -1400,13 +1535,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="109.932692307692" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.6826923076923" style="2" customWidth="1"/>
@@ -1462,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>478</v>
+        <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -1474,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="H2" s="4">
         <v>130</v>
@@ -1497,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>369</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1509,7 +1644,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="H3" s="2">
         <v>110</v>
@@ -1532,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -1544,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="2">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="H4" s="2">
         <v>90</v>
@@ -1567,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="2">
-        <v>262</v>
+        <v>387</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -1579,7 +1714,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="2">
-        <v>530</v>
+        <v>880</v>
       </c>
       <c r="H5" s="2">
         <v>85</v>
@@ -1591,6 +1726,391 @@
         <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>540</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>540</v>
+      </c>
+      <c r="H6" s="2">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2">
+        <v>265</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2">
+        <v>625</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>640</v>
+      </c>
+      <c r="H7" s="2">
+        <v>85</v>
+      </c>
+      <c r="I7" s="2">
+        <v>265</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>627</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>650</v>
+      </c>
+      <c r="H8" s="2">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2">
+        <v>265</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>475811</v>
+      </c>
+      <c r="C9" s="2">
+        <v>630</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2">
+        <v>820</v>
+      </c>
+      <c r="H9" s="2">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2">
+        <v>265</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2">
+        <v>651</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2">
+        <v>780</v>
+      </c>
+      <c r="H10" s="2">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2">
+        <v>265</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2">
+        <v>544</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>599</v>
+      </c>
+      <c r="H11" s="2">
+        <v>85</v>
+      </c>
+      <c r="I11" s="2">
+        <v>265</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2">
+        <v>532</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2">
+        <v>680</v>
+      </c>
+      <c r="H12" s="2">
+        <v>85</v>
+      </c>
+      <c r="I12" s="2">
+        <v>265</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2">
+        <v>531</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
+        <v>599</v>
+      </c>
+      <c r="H13" s="2">
+        <v>85</v>
+      </c>
+      <c r="I13" s="2">
+        <v>265</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2">
+        <v>359</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>450</v>
+      </c>
+      <c r="H14" s="2">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2">
+        <v>265</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2">
+        <v>262</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2">
+        <v>630</v>
+      </c>
+      <c r="H15" s="2">
+        <v>85</v>
+      </c>
+      <c r="I15" s="2">
+        <v>265</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2">
+        <v>238</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>460</v>
+      </c>
+      <c r="H16" s="2">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2">
+        <v>265</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1643,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -1663,25 +2183,25 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4">
         <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H2" s="4">
         <v>680</v>
@@ -1695,30 +2215,30 @@
         <v>340</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4">
         <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H3" s="4">
         <v>550</v>
@@ -1732,7 +2252,7 @@
         <v>275</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:11">
@@ -1744,10 +2264,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H4" s="4">
         <v>660</v>
@@ -1761,7 +2281,7 @@
         <v>330</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
@@ -1773,10 +2293,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H5" s="4">
         <v>450</v>
@@ -1790,7 +2310,7 @@
         <v>225</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
@@ -1802,10 +2322,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H6" s="4">
         <v>660</v>
@@ -1819,7 +2339,7 @@
         <v>330</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
@@ -1831,10 +2351,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H7" s="4">
         <v>860</v>
@@ -1848,7 +2368,7 @@
         <v>430</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
@@ -1860,10 +2380,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H8" s="4">
         <v>620</v>
@@ -1889,10 +2409,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2">
         <v>800</v>
@@ -1906,7 +2426,7 @@
         <v>400</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="3:11">
@@ -1916,10 +2436,10 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H10" s="4">
         <v>599</v>
@@ -1945,10 +2465,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="H11" s="4">
         <v>689</v>
@@ -1974,10 +2494,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
@@ -2003,10 +2523,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2">
         <v>699</v>
@@ -2020,7 +2540,7 @@
         <v>349.5</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
@@ -2031,10 +2551,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2">
         <v>599</v>
@@ -2048,7 +2568,7 @@
         <v>299.5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="3:11">
@@ -2056,10 +2576,10 @@
         <v>532</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2">
         <v>780</v>
@@ -2073,7 +2593,7 @@
         <v>390</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="3:11">
@@ -2081,10 +2601,10 @@
         <v>541</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2">
         <v>800</v>

--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="9800"/>
+    <workbookView windowWidth="28260" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,312 +28,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>BrowserID</t>
+  </si>
+  <si>
+    <t>ProductNameCn</t>
+  </si>
+  <si>
+    <t>ProductNameEn</t>
+  </si>
+  <si>
+    <t>GenderEn</t>
+  </si>
+  <si>
+    <t>HKPrice</t>
+  </si>
+  <si>
+    <t>SGPrice</t>
+  </si>
+  <si>
+    <t>MYPrice</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>M1906REH</t>
+  </si>
+  <si>
+    <t>New Balance NB 1906R Y2K 男女同款銀灰</t>
+  </si>
+  <si>
+    <t>New Balance NB 1906R Y2K unisex silver-grey</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>New Balance</t>
+  </si>
+  <si>
+    <t>C:\Users\pjnxr\Desktop\U990GR6</t>
+  </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>BrowserID</t>
-  </si>
-  <si>
-    <t>ProductNameCn</t>
-  </si>
-  <si>
-    <t>ProductNameEn</t>
-  </si>
-  <si>
-    <t>GenderEn</t>
-  </si>
-  <si>
-    <t>HKPrice</t>
-  </si>
-  <si>
-    <t>SGPrice</t>
-  </si>
-  <si>
-    <t>MYPrice</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>香菜脑袋iiic发布了一篇得物动态，https://dw4.co/t/A/1tAyKdM3e点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>M1906REH</t>
-  </si>
-  <si>
-    <t>New Balance NB 1906R Y2K 男女同款銀灰</t>
-  </si>
-  <si>
-    <t>New Balance NB 1906R Y2K unisex silver-grey</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
-    <t>New Balance</t>
-  </si>
-  <si>
-    <t>C:\Users\pjnxr\Desktop\U990GR6</t>
-  </si>
-  <si>
-    <t>快乐椰椰a发布了一篇得物动态，https://dw4.co/t/A/1tB0KiySW点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>IF4397</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG 黑白藍</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG black white blue</t>
-  </si>
-  <si>
-    <t>men</t>
+    <t>GenderCn</t>
+  </si>
+  <si>
+    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>M2002RG1</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R 男女同款 綠色</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R Unisex Green</t>
+  </si>
+  <si>
+    <t>男裝</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Balance </t>
+  </si>
+  <si>
+    <t>酸橘子糖发布了一篇得物动态，https://dw4.co/t/A/1sxMYiqdm点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>IG9030</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG 女 白色</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG Women's White</t>
+  </si>
+  <si>
+    <t>女裝</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>Hoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adidas YEEZY </t>
+  </si>
+  <si>
+    <t>Asics</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
   </si>
   <si>
     <t>Nike</t>
   </si>
   <si>
-    <t>C:\Users\pjnxr\Desktop\FN3727-100</t>
-  </si>
-  <si>
-    <t>小小小小小绵羊发布了一篇得物动态，https://dw4.co/t/A/1tAzy8w1u点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>FD0736-100</t>
-  </si>
-  <si>
-    <t>Nike V2K Run 女裝白銀</t>
-  </si>
-  <si>
-    <t>Nike V2K Run Women's Silver</t>
+    <t>Balenciaga</t>
   </si>
   <si>
     <t>Adidas</t>
-  </si>
-  <si>
-    <t>C:\Users\pjnxr\Desktop\IF4491</t>
-  </si>
-  <si>
-    <t>年纪大了7点就困发布了一篇得物动态，https://dw4.co/t/A/1tAzyRVzk点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>734734W3XL49191</t>
-  </si>
-  <si>
-    <t>Balenciaga 3XL 繫帶 做舊 老爸鞋 淺米色</t>
-  </si>
-  <si>
-    <t>Balenciaga 3XL lace-up distressed sneakers in light beige</t>
-  </si>
-  <si>
-    <t>Balenciaga</t>
-  </si>
-  <si>
-    <t>C:\Users\pjnxr\Desktop\THL7C2-9399</t>
-  </si>
-  <si>
-    <t>似懂非懂3发布了一篇得物动态，https://dw4.co/t/A/1tB0YbS1A点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>1147670-ANW</t>
-  </si>
-  <si>
-    <t>HOKA ONE ONE HOPARA 2 溯溪鞋 女款白色</t>
-  </si>
-  <si>
-    <t>HOKA ONE ONE HOPARA 2 River Shoes Women's White</t>
-  </si>
-  <si>
-    <t>阿嘛特呀斯发布了一篇得物动态，https://dw4.co/t/A/1tB0ZDam4点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>1202A056-109</t>
-  </si>
-  <si>
-    <t>ASICS Gel-Kayano 14 女裝白銀</t>
-  </si>
-  <si>
-    <t>ASICS Gel-Kayano 14 Women's White, Black, and Silver</t>
-  </si>
-  <si>
-    <t>Asics</t>
-  </si>
-  <si>
-    <t>你的小汐汐发布了一篇得物动态，https://dw4.co/t/A/1tAynUYHw点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>FU9007</t>
-  </si>
-  <si>
-    <t>adidas originals Yeezy Boost 350 V2 黑滿天星"Black"  男女同款</t>
-  </si>
-  <si>
-    <t>adidas originals Yeezy Boost 350 V2 "Black" unisex</t>
-  </si>
-  <si>
-    <t>大运天地SLOMON_JOjo发布了一篇得物动态，https://dw4.co/t/A/1tB0znS3w点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>SALOMON XT-6 GTX 黑色 白色</t>
-  </si>
-  <si>
-    <t>SALOMON XT-6 GTX Black White</t>
-  </si>
-  <si>
-    <t>Salomon</t>
-  </si>
-  <si>
-    <t>要努力学习呀呀发布了一篇得物动态，https://dw4.co/t/A/1tAzboe1H点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>1201A019-108</t>
-  </si>
-  <si>
-    <t>ASICS Gel-Kayano 14 戶外機能 Y2K 男女同款 黑白銀</t>
-  </si>
-  <si>
-    <t>ASICS Gel-Kayano 14 Outdoor Functional Y2K Unisex Black, White, and Silver</t>
-  </si>
-  <si>
-    <t>球鞋开箱日记发布了一篇得物动态，https://dw4.co/t/A/1tB0PvtdX点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>FZ1267</t>
-  </si>
-  <si>
-    <t>adidas originals Yeezy Boost 350 V2 芝麻灰" zyon 男女同款 灰色</t>
-  </si>
-  <si>
-    <t>adidas originals Yeezy Boost 350 V2 Sesame Grey" zyon unisex grey</t>
-  </si>
-  <si>
-    <t>温州彭于晏___发布了一篇得物动态，https://dw4.co/t/A/1tB1MmgUS点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>RU01D3897LCOLVS-911</t>
-  </si>
-  <si>
-    <t>RICK OWENS/RO 黑色</t>
-  </si>
-  <si>
-    <t>RICK OWENS/RO black</t>
-  </si>
-  <si>
-    <t>RICK OWENS</t>
-  </si>
-  <si>
-    <t>蒋潇潇发布了一篇得物动态，https://dw4.co/t/A/1tB12oZY4点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>FJ1674-100</t>
-  </si>
-  <si>
-    <t>Nike Dunk SB Low Pro "Triple White" 男女同款白</t>
-  </si>
-  <si>
-    <t>Nike Dunk SB Low Pro "Triple White" unisex white</t>
-  </si>
-  <si>
-    <t>泡泡只想玩球鞋发布了一篇得物动态，https://dw4.co/t/A/1tB1NcQQN点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>D507L-0152</t>
-  </si>
-  <si>
-    <t>Onitsuka Tiger MEXICO 66 白藍色</t>
-  </si>
-  <si>
-    <t>Onitsuka Tiger</t>
-  </si>
-  <si>
-    <t>BillLin发布了一篇得物动态，https://dw4.co/t/A/1tB04BhQq点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>DR5415-100</t>
-  </si>
-  <si>
-    <t>Nike SB x Jordan Air Jordan 4 "Navy" 男女同款 白藍</t>
-  </si>
-  <si>
-    <t>Nike SB x Jordan Air Jordan 4 "Navy" unisex white and blue</t>
-  </si>
-  <si>
-    <t>Jordan Air</t>
-  </si>
-  <si>
-    <t>得物小静静124发布了一篇得物动态，https://dw4.co/t/A/1tB04SgHo点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>IE3437</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG 男女同款 白綠灰</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG unisex white, green and grey</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>GenderCn</t>
-  </si>
-  <si>
-    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>M2002RG1</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R 男女同款 綠色</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R Unisex Green</t>
-  </si>
-  <si>
-    <t>男裝</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Balance </t>
-  </si>
-  <si>
-    <t>酸橘子糖发布了一篇得物动态，https://dw4.co/t/A/1sxMYiqdm点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>IG9030</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG 女 白色</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG Women's White</t>
-  </si>
-  <si>
-    <t>女裝</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>Hoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adidas YEEZY </t>
-  </si>
-  <si>
-    <t>SALOMON</t>
   </si>
   <si>
     <t>m</t>
@@ -1535,26 +1346,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="109.932692307692" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.6826923076923" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.5576923076923" style="2" customWidth="1"/>
-    <col min="5" max="5" width="121.144230769231" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9.23076923076923" style="2"/>
-    <col min="10" max="10" width="13.4519230769231" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.1153846153846" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.23076923076923" style="2"/>
+    <col min="1" max="1" width="28.6826923076923" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.5576923076923" style="2" customWidth="1"/>
+    <col min="4" max="4" width="121.144230769231" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9.23076923076923" style="2"/>
+    <col min="9" max="9" width="13.4519230769231" style="2" customWidth="1"/>
+    <col min="10" max="10" width="51.1153846153846" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1582,542 +1392,49 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="4">
+        <v>542</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>560</v>
+      </c>
+      <c r="G2" s="4">
+        <v>130</v>
+      </c>
+      <c r="H2" s="4">
+        <v>299.5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
-        <v>199</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4">
-        <v>560</v>
-      </c>
-      <c r="H2" s="4">
-        <v>130</v>
-      </c>
-      <c r="I2" s="4">
-        <v>299.5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>206</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2">
-        <v>560</v>
-      </c>
-      <c r="H3" s="2">
-        <v>110</v>
-      </c>
-      <c r="I3" s="2">
-        <v>275</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <v>209</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2">
-        <v>530</v>
-      </c>
-      <c r="H4" s="2">
-        <v>90</v>
-      </c>
-      <c r="I4" s="2">
-        <v>225</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2">
-        <v>387</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
-        <v>880</v>
-      </c>
-      <c r="H5" s="2">
-        <v>85</v>
-      </c>
-      <c r="I5" s="2">
-        <v>265</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>540</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>540</v>
-      </c>
-      <c r="H6" s="2">
-        <v>85</v>
-      </c>
-      <c r="I6" s="2">
-        <v>265</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
-        <v>625</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>640</v>
-      </c>
-      <c r="H7" s="2">
-        <v>85</v>
-      </c>
-      <c r="I7" s="2">
-        <v>265</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>627</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2">
-        <v>650</v>
-      </c>
-      <c r="H8" s="2">
-        <v>85</v>
-      </c>
-      <c r="I8" s="2">
-        <v>265</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2">
-        <v>475811</v>
-      </c>
-      <c r="C9" s="2">
-        <v>630</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2">
-        <v>820</v>
-      </c>
-      <c r="H9" s="2">
-        <v>85</v>
-      </c>
-      <c r="I9" s="2">
-        <v>265</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2">
-        <v>651</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2">
-        <v>780</v>
-      </c>
-      <c r="H10" s="2">
-        <v>85</v>
-      </c>
-      <c r="I10" s="2">
-        <v>265</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2">
-        <v>544</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2">
-        <v>599</v>
-      </c>
-      <c r="H11" s="2">
-        <v>85</v>
-      </c>
-      <c r="I11" s="2">
-        <v>265</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="2">
-        <v>532</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2">
-        <v>680</v>
-      </c>
-      <c r="H12" s="2">
-        <v>85</v>
-      </c>
-      <c r="I12" s="2">
-        <v>265</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="2">
-        <v>531</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2">
-        <v>599</v>
-      </c>
-      <c r="H13" s="2">
-        <v>85</v>
-      </c>
-      <c r="I13" s="2">
-        <v>265</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="2">
-        <v>359</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2">
-        <v>450</v>
-      </c>
-      <c r="H14" s="2">
-        <v>85</v>
-      </c>
-      <c r="I14" s="2">
-        <v>265</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="2">
-        <v>262</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="2">
-        <v>630</v>
-      </c>
-      <c r="H15" s="2">
-        <v>85</v>
-      </c>
-      <c r="I15" s="2">
-        <v>265</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="2">
-        <v>238</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2">
-        <v>460</v>
-      </c>
-      <c r="H16" s="2">
-        <v>85</v>
-      </c>
-      <c r="I16" s="2">
-        <v>265</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="5" s="2" customFormat="1" spans="4:4">
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
-      <formula1>$M:$M</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+      <formula1>$L:$L</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2148,60 +1465,60 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4">
         <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>680</v>
@@ -2215,30 +1532,30 @@
         <v>340</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <v>550</v>
@@ -2252,7 +1569,7 @@
         <v>275</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:11">
@@ -2264,10 +1581,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4">
         <v>660</v>
@@ -2281,7 +1598,7 @@
         <v>330</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
@@ -2293,10 +1610,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4">
         <v>450</v>
@@ -2310,7 +1627,7 @@
         <v>225</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
@@ -2322,10 +1639,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4">
         <v>660</v>
@@ -2339,7 +1656,7 @@
         <v>330</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
@@ -2351,10 +1668,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4">
         <v>860</v>
@@ -2368,7 +1685,7 @@
         <v>430</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
@@ -2380,10 +1697,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4">
         <v>620</v>
@@ -2397,7 +1714,7 @@
         <v>310</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:11">
@@ -2409,10 +1726,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
         <v>800</v>
@@ -2426,7 +1743,7 @@
         <v>400</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="3:11">
@@ -2436,10 +1753,10 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H10" s="4">
         <v>599</v>
@@ -2453,7 +1770,7 @@
         <v>299.5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
@@ -2465,10 +1782,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>689</v>
@@ -2482,7 +1799,7 @@
         <v>344.5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:11">
@@ -2494,10 +1811,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
@@ -2511,7 +1828,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -2523,10 +1840,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2">
         <v>699</v>
@@ -2540,7 +1857,7 @@
         <v>349.5</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="2:11">
@@ -2551,10 +1868,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2">
         <v>599</v>
@@ -2568,7 +1885,7 @@
         <v>299.5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="3:11">
@@ -2576,10 +1893,10 @@
         <v>532</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2">
         <v>780</v>
@@ -2593,7 +1910,7 @@
         <v>390</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="3:11">
@@ -2601,10 +1918,10 @@
         <v>541</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2">
         <v>800</v>
@@ -2618,7 +1935,7 @@
         <v>400</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="5:5">

--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="14020"/>
+    <workbookView windowWidth="28260" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>New Balance</t>
   </si>
   <si>
-    <t>C:\Users\pjnxr\Desktop\U990GR6</t>
+    <t>/Users/liuxiang/Desktop/p2/475813/modified</t>
   </si>
   <si>
     <t>URL</t>
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>

--- a/example_products.xlsx
+++ b/example_products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="14040"/>
+    <workbookView windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>SKU</t>
   </si>
@@ -60,88 +60,142 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>M1906REH</t>
-  </si>
-  <si>
-    <t>New Balance NB 1906R Y2K 男女同款銀灰</t>
-  </si>
-  <si>
-    <t>New Balance NB 1906R Y2K unisex silver-grey</t>
-  </si>
-  <si>
-    <t>women</t>
+    <t>1203A537-250</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14灰白色</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Grayish White</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>Asics</t>
+  </si>
+  <si>
+    <t>朵拉duoduolala发布了一篇得物动态，https://dw4.co/t/A/1tjzkybKY点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1201A019-108</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Cream Black Metallic Plum</t>
+  </si>
+  <si>
+    <t>草莓小狗爱吃肉发布了一篇得物动态，https://dw4.co/t/A/1tk1Y5Sjz点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1201A019-105</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14男女同款奶茶棕銀</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Cream Pure Silver</t>
+  </si>
+  <si>
+    <t>卡麻麻发布了一篇得物动态，https://dw4.co/t/A/1tk1YvkzL点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1203A537-104</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14男女同款金銀白</t>
+  </si>
+  <si>
+    <t>ASICS GEL-Kayano 14 Olympic Medals</t>
+  </si>
+  <si>
+    <t>今天吃饱饭_发布了一篇得物动态，https://dw4.co/t/A/1tk0krQXb点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1201A019-006</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14男女同款黑色</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Unisex Black</t>
+  </si>
+  <si>
+    <t>Chillhigh415发布了一篇得物动态，https://dw4.co/t/A/1tk1aPmIe点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>1203A537-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASICS Gel-Kayano 14 “White Fjord Grey” </t>
+  </si>
+  <si>
+    <t>二小在努力发布了一篇得物动态，https://dw4.co/t/A/1tk2OoXr3点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>GenderCn</t>
+  </si>
+  <si>
+    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>M2002RG1</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R 男女同款 綠色</t>
+  </si>
+  <si>
+    <t>New Balance NB 2002R Unisex Green</t>
+  </si>
+  <si>
+    <t>男裝</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Balance </t>
+  </si>
+  <si>
+    <t>酸橘子糖发布了一篇得物动态，https://dw4.co/t/A/1sxMYiqdm点开链接，快来看吧！</t>
+  </si>
+  <si>
+    <t>IG9030</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG 女 白色</t>
+  </si>
+  <si>
+    <t>adidas originals SAMBA OG Women's White</t>
+  </si>
+  <si>
+    <t>女裝</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>Hoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adidas YEEZY </t>
+  </si>
+  <si>
+    <t>SALOMON</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
   </si>
   <si>
     <t>New Balance</t>
-  </si>
-  <si>
-    <t>/Users/liuxiang/Desktop/p2/475813/modified</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>GenderCn</t>
-  </si>
-  <si>
-    <t>是百厌仔发布了一篇得物动态，https://dw4.co/t/A/1swH31Qd9点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>M2002RG1</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R 男女同款 綠色</t>
-  </si>
-  <si>
-    <t>New Balance NB 2002R Unisex Green</t>
-  </si>
-  <si>
-    <t>男裝</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Balance </t>
-  </si>
-  <si>
-    <t>酸橘子糖发布了一篇得物动态，https://dw4.co/t/A/1sxMYiqdm点开链接，快来看吧！</t>
-  </si>
-  <si>
-    <t>IG9030</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG 女 白色</t>
-  </si>
-  <si>
-    <t>adidas originals SAMBA OG Women's White</t>
-  </si>
-  <si>
-    <t>女裝</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>adidas</t>
-  </si>
-  <si>
-    <t>Hoka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adidas YEEZY </t>
-  </si>
-  <si>
-    <t>Asics</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Balenciaga</t>
   </si>
   <si>
     <t>Adidas</t>
@@ -1346,21 +1400,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="28.6826923076923" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.5576923076923" style="2" customWidth="1"/>
-    <col min="4" max="4" width="121.144230769231" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.0480769230769" style="2" customWidth="1"/>
+    <col min="4" max="4" width="70.0192307692308" style="2" customWidth="1"/>
     <col min="5" max="8" width="9.23076923076923" style="2"/>
     <col min="9" max="9" width="13.4519230769231" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.1153846153846" style="2" customWidth="1"/>
+    <col min="10" max="10" width="72.4711538461538" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
@@ -1401,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
@@ -1413,7 +1467,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="G2" s="4">
         <v>130</v>
@@ -1428,8 +1482,165 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="4:4">
-      <c r="D5" s="9"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>523</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>680</v>
+      </c>
+      <c r="G3" s="2">
+        <v>160</v>
+      </c>
+      <c r="H3" s="4">
+        <v>300.5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>523</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>660</v>
+      </c>
+      <c r="G4" s="2">
+        <v>145</v>
+      </c>
+      <c r="H4" s="4">
+        <v>300.5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>523</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>630</v>
+      </c>
+      <c r="G5" s="2">
+        <v>140</v>
+      </c>
+      <c r="H5" s="4">
+        <v>300.5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>523</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>680</v>
+      </c>
+      <c r="G6" s="2">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4">
+        <v>300.5</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2">
+        <v>523</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>650</v>
+      </c>
+      <c r="G7" s="2">
+        <v>130</v>
+      </c>
+      <c r="H7" s="4">
+        <v>300.5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1465,7 +1676,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1480,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1500,25 +1711,25 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
         <v>199</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H2" s="4">
         <v>680</v>
@@ -1532,30 +1743,30 @@
         <v>340</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4">
         <v>550</v>
@@ -1569,7 +1780,7 @@
         <v>275</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:11">
@@ -1581,10 +1792,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4">
         <v>660</v>
@@ -1598,7 +1809,7 @@
         <v>330</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:11">
@@ -1610,10 +1821,10 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4">
         <v>450</v>
@@ -1627,7 +1838,7 @@
         <v>225</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:11">
@@ -1639,10 +1850,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4">
         <v>660</v>
@@ -1656,7 +1867,7 @@
         <v>330</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:11">
@@ -1668,10 +1879,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4">
         <v>860</v>
@@ -1685,7 +1896,7 @@
         <v>430</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:11">
@@ -1697,10 +1908,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4">
         <v>620</v>
@@ -1714,7 +1925,7 @@
         <v>310</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:11">
@@ -1726,10 +1937,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2">
         <v>800</v>
@@ -1743,20 +1954,20 @@
         <v>400</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="3:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:11">
       <c r="C10" s="4">
         <v>478</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4">
         <v>599</v>
@@ -1770,7 +1981,7 @@
         <v>299.5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:11">
@@ -1782,10 +1993,10 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H11" s="4">
         <v>689</v>
@@ -1799,7 +2010,7 @@
         <v>344.5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:11">
@@ -1811,10 +2022,10 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H12" s="4">
         <v>480</v>
@@ -1828,7 +2039,7 @@
         <v>240</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:11">
@@ -1840,10 +2051,10 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2">
         <v>699</v>
@@ -1857,10 +2068,10 @@
         <v>349.5</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="2:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:11">
       <c r="B14" s="4"/>
       <c r="C14" s="2">
         <v>544</v>
@@ -1868,10 +2079,10 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2">
         <v>599</v>
@@ -1885,18 +2096,18 @@
         <v>299.5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="3:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:11">
       <c r="C15" s="2">
         <v>532</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2">
         <v>780</v>
@@ -1910,18 +2121,18 @@
         <v>390</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="3:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:11">
       <c r="C16" s="2">
         <v>541</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2">
         <v>800</v>
@@ -1935,7 +2146,7 @@
         <v>400</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="5:5">
